--- a/cmip6/models/ec-earth3p-vhr/cmip6_ec-earth-consortium_ec-earth3p-vhr_seaice.xlsx
+++ b/cmip6/models/ec-earth3p-vhr/cmip6_ec-earth-consortium_ec-earth3p-vhr_seaice.xlsx
@@ -43,7 +43,7 @@
     <t>EC-EARTH3P-VHR</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Sea Ice</t>

--- a/cmip6/models/ec-earth3p-vhr/cmip6_ec-earth-consortium_ec-earth3p-vhr_seaice.xlsx
+++ b/cmip6/models/ec-earth3p-vhr/cmip6_ec-earth-consortium_ec-earth3p-vhr_seaice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="532">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -235,10 +235,10 @@
     <t>Salinity</t>
   </si>
   <si>
-    <t>Snow temperature</t>
-  </si>
-  <si>
-    <t>Snow depth</t>
+    <t>Snow temperature: Snow on ice temperature</t>
+  </si>
+  <si>
+    <t>Snow depth: Snow on ice thickness</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -265,10 +265,10 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>TEOS-10</t>
-  </si>
-  <si>
-    <t>Constant</t>
+    <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
+  </si>
+  <si>
+    <t>Constant: Constant value of seawater freezing point is used.</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.2 </t>
@@ -633,13 +633,13 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
   </si>
   <si>
-    <t>Ocean grid</t>
-  </si>
-  <si>
-    <t>Atmosphere Grid</t>
-  </si>
-  <si>
-    <t>Own Grid</t>
+    <t>Ocean grid: Sea ice is horizontally discretised on the ocean grid.</t>
+  </si>
+  <si>
+    <t>Atmosphere Grid: Sea ice is horizontally discretised on the atmospheric grid.</t>
+  </si>
+  <si>
+    <t>Own Grid: Sea ice is horizontally discretised on its own independent grid.</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -660,7 +660,7 @@
     <t>Unstructured grid</t>
   </si>
   <si>
-    <t>Adaptive grid</t>
+    <t>Adaptive grid: Computational grid changes during the run</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -741,13 +741,13 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
-    <t>Zero-layer</t>
-  </si>
-  <si>
-    <t>Two-layers</t>
-  </si>
-  <si>
-    <t>Multi-layers</t>
+    <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
+  </si>
+  <si>
+    <t>Multi-layers: Simulation uses more than two layers.</t>
   </si>
   <si>
     <t>2.1.3.2 *</t>
@@ -936,7 +936,7 @@
     <t>cmip6.seaice.dynamics.horizontal_transport</t>
   </si>
   <si>
-    <t>Incremental Re-mapping</t>
+    <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
   </si>
   <si>
     <t>Prather</t>
@@ -1011,10 +1011,10 @@
     <t>Mohr-Coloumb</t>
   </si>
   <si>
-    <t>Visco-plastic</t>
-  </si>
-  <si>
-    <t>Elastic-visco-plastic</t>
+    <t>Visco-plastic: VP</t>
+  </si>
+  <si>
+    <t>Elastic-visco-plastic: EVP</t>
   </si>
   <si>
     <t>Elastic-anisotropic-plastic</t>
@@ -1134,13 +1134,13 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
-    <t>Heat Reservoir</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity</t>
+    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
+  </si>
+  <si>
+    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
+  </si>
+  <si>
+    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.5 </t>
@@ -1311,6 +1311,9 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
   </si>
   <si>
+    <t>Constant</t>
+  </si>
+  <si>
     <t>Prescribed salinity profile</t>
   </si>
   <si>
@@ -1608,10 +1611,10 @@
     <t>Delta-Eddington</t>
   </si>
   <si>
-    <t>Parameterized</t>
-  </si>
-  <si>
-    <t>Multi-band albedo</t>
+    <t>Parameterized: Sea ice albedo is parameterized.</t>
+  </si>
+  <si>
+    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
   </si>
   <si>
     <t>5.1.1.4 *</t>
@@ -1629,7 +1632,7 @@
     <t>Exponential attenuation</t>
   </si>
   <si>
-    <t>Ice radiation transmission per category</t>
+    <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
   </si>
 </sst>
 </file>
@@ -4679,13 +4682,13 @@
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AD93" s="6" t="s">
         <v>73</v>
@@ -4693,10 +4696,10 @@
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
@@ -4704,10 +4707,10 @@
         <v>85</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
@@ -4715,7 +4718,7 @@
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>226</v>
@@ -4726,10 +4729,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
@@ -4742,20 +4745,20 @@
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>421</v>
@@ -4766,22 +4769,22 @@
         <v>59</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AD110" s="6" t="s">
         <v>73</v>
@@ -4789,10 +4792,10 @@
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
@@ -4800,10 +4803,10 @@
         <v>85</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
@@ -4811,7 +4814,7 @@
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>226</v>
@@ -4822,10 +4825,10 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
@@ -4838,23 +4841,23 @@
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
@@ -4862,19 +4865,19 @@
         <v>59</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
       <c r="B127" s="11"/>
       <c r="AA127" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AC127" s="6" t="s">
         <v>73</v>
@@ -4882,23 +4885,23 @@
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
@@ -4906,19 +4909,19 @@
         <v>59</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
       <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC135" s="6" t="s">
         <v>73</v>
@@ -4926,7 +4929,7 @@
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>226</v>
@@ -4937,10 +4940,10 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
@@ -4953,23 +4956,23 @@
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
@@ -4977,10 +4980,10 @@
         <v>178</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
@@ -4988,10 +4991,10 @@
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
@@ -4999,19 +5002,19 @@
         <v>59</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
       <c r="B152" s="11"/>
       <c r="AA152" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AC152" s="6" t="s">
         <v>73</v>
@@ -5019,10 +5022,10 @@
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
@@ -5030,10 +5033,10 @@
         <v>59</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5044,13 +5047,13 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AD157" s="6" t="s">
         <v>73</v>
@@ -5058,23 +5061,23 @@
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -5082,10 +5085,10 @@
         <v>178</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -5093,10 +5096,10 @@
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5104,10 +5107,10 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -5120,10 +5123,10 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -5131,10 +5134,10 @@
         <v>178</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5142,10 +5145,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5153,10 +5156,10 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
@@ -5169,7 +5172,7 @@
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>314</v>
@@ -5180,10 +5183,10 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
@@ -5191,7 +5194,7 @@
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>356</v>
@@ -5202,19 +5205,19 @@
         <v>59</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
       <c r="B187" s="11"/>
       <c r="AA187" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC187" s="6" t="s">
         <v>73</v>
@@ -5306,20 +5309,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5330,10 +5333,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5341,7 +5344,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -5352,10 +5355,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5368,10 +5371,10 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
@@ -5379,22 +5382,22 @@
         <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AD15" s="6" t="s">
         <v>73</v>
@@ -5402,10 +5405,10 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -5413,10 +5416,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5427,13 +5430,13 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>73</v>
